--- a/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/168/stop-words-topk-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="67">
   <si>
     <t>anchor score</t>
   </si>
@@ -46,22 +46,25 @@
     <t>disappointing</t>
   </si>
   <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
     <t>however</t>
   </si>
   <si>
-    <t>poor</t>
-  </si>
-  <si>
     <t>waste</t>
   </si>
   <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
-    <t>junk</t>
+    <t>instead</t>
   </si>
   <si>
     <t>smaller</t>
@@ -76,60 +79,63 @@
     <t>plastic</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>apart</t>
-  </si>
-  <si>
     <t>thought</t>
   </si>
   <si>
+    <t>though</t>
+  </si>
+  <si>
     <t>size</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
     <t>hard</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>money</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>price</t>
+    <t>product</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
-    <t>would</t>
-  </si>
-  <si>
-    <t>product</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
+    <t>buy</t>
+  </si>
+  <si>
     <t>little</t>
   </si>
   <si>
-    <t>use</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
@@ -160,12 +166,12 @@
     <t>love</t>
   </si>
   <si>
+    <t>loves</t>
+  </si>
+  <si>
     <t>thank</t>
   </si>
   <si>
-    <t>loves</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
@@ -181,10 +187,10 @@
     <t>friends</t>
   </si>
   <si>
+    <t>enjoyed</t>
+  </si>
+  <si>
     <t>learn</t>
-  </si>
-  <si>
-    <t>happy</t>
   </si>
   <si>
     <t>christmas</t>
@@ -566,7 +572,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -574,10 +580,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -635,13 +641,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9782608695652174</v>
+        <v>0.9130434782608695</v>
       </c>
       <c r="C3">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D3">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -653,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="K3">
         <v>0.8928571428571429</v>
@@ -685,13 +691,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8181818181818182</v>
+        <v>0.8863636363636364</v>
       </c>
       <c r="C4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D4">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -703,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K4">
-        <v>0.8769230769230769</v>
+        <v>0.8923076923076924</v>
       </c>
       <c r="L4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="M4">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -727,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -735,13 +741,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.75</v>
+        <v>0.7323943661971831</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -753,19 +759,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K5">
-        <v>0.8387096774193549</v>
+        <v>0.8172043010752689</v>
       </c>
       <c r="L5">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="M5">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -777,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -785,13 +791,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7183098591549296</v>
+        <v>0.7311827956989247</v>
       </c>
       <c r="C6">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="D6">
-        <v>51</v>
+        <v>136</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -803,19 +809,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K6">
-        <v>0.796875</v>
+        <v>0.734375</v>
       </c>
       <c r="L6">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="M6">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -827,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>13</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -835,13 +841,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6824324324324325</v>
+        <v>0.6727272727272727</v>
       </c>
       <c r="C7">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="D7">
-        <v>101</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -853,19 +859,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K7">
-        <v>0.660377358490566</v>
+        <v>0.6792452830188679</v>
       </c>
       <c r="L7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M7">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -877,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -885,13 +891,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.6720430107526881</v>
+        <v>0.671875</v>
       </c>
       <c r="C8">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="D8">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -903,19 +909,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>61</v>
+        <v>21</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K8">
-        <v>0.5839311334289814</v>
+        <v>0.5767575322812052</v>
       </c>
       <c r="L8">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="M8">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -927,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -935,13 +941,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6650485436893204</v>
+        <v>0.6554054054054054</v>
       </c>
       <c r="C9">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="D9">
-        <v>137</v>
+        <v>97</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -953,19 +959,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>69</v>
+        <v>51</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K9">
-        <v>0.5362318840579711</v>
+        <v>0.529045643153527</v>
       </c>
       <c r="L9">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="M9">
-        <v>37</v>
+        <v>255</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -977,7 +983,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>32</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -985,13 +991,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6181818181818182</v>
+        <v>0.616504854368932</v>
       </c>
       <c r="C10">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="D10">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1003,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K10">
-        <v>0.5269709543568465</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="L10">
-        <v>254</v>
+        <v>36</v>
       </c>
       <c r="M10">
-        <v>254</v>
+        <v>36</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1027,7 +1033,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>228</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1035,13 +1041,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5630252100840336</v>
+        <v>0.6041666666666666</v>
       </c>
       <c r="C11">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="D11">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1053,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="H11">
+        <v>19</v>
+      </c>
+      <c r="J11" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="J11" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="K11">
-        <v>0.4811475409836066</v>
+        <v>0.4827868852459016</v>
       </c>
       <c r="L11">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="M11">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1077,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1085,13 +1091,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5246376811594203</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C12">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="D12">
-        <v>181</v>
+        <v>70</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1103,19 +1109,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>164</v>
+        <v>49</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K12">
-        <v>0.3853211009174312</v>
+        <v>0.400611620795107</v>
       </c>
       <c r="L12">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="M12">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1127,7 +1133,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1135,13 +1141,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.4698795180722892</v>
+        <v>0.5072463768115942</v>
       </c>
       <c r="C13">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="D13">
-        <v>39</v>
+        <v>175</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1153,19 +1159,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>44</v>
+        <v>170</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K13">
-        <v>0.3674698795180723</v>
+        <v>0.3373493975903614</v>
       </c>
       <c r="L13">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M13">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1177,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1185,13 +1191,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4094488188976378</v>
+        <v>0.4939759036144578</v>
       </c>
       <c r="C14">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D14">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1203,19 +1209,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K14">
-        <v>0.3333333333333333</v>
+        <v>0.325</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1227,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1235,13 +1241,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4044943820224719</v>
+        <v>0.4330708661417323</v>
       </c>
       <c r="C15">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="D15">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1253,19 +1259,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>53</v>
+        <v>72</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K15">
-        <v>0.328042328042328</v>
+        <v>0.3068783068783069</v>
       </c>
       <c r="L15">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="M15">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1277,7 +1283,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1285,13 +1291,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3791469194312796</v>
+        <v>0.40625</v>
       </c>
       <c r="C16">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="D16">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1303,19 +1309,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>131</v>
+        <v>76</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K16">
-        <v>0.2421875</v>
+        <v>0.253968253968254</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1327,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1335,13 +1341,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.375</v>
+        <v>0.3981042654028436</v>
       </c>
       <c r="C17">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="D17">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1353,19 +1359,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>80</v>
+        <v>127</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K17">
-        <v>0.2167832167832168</v>
+        <v>0.25</v>
       </c>
       <c r="L17">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M17">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1377,7 +1383,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>112</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1385,13 +1391,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3368421052631579</v>
+        <v>0.3578947368421053</v>
       </c>
       <c r="C18">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1403,19 +1409,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K18">
-        <v>0.2048192771084337</v>
+        <v>0.2329317269076305</v>
       </c>
       <c r="L18">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="M18">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1427,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>198</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1435,13 +1441,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2871287128712871</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C19">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1453,28 +1459,28 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>144</v>
+        <v>59</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K19">
-        <v>0.1989247311827957</v>
+        <v>0.1945945945945946</v>
       </c>
       <c r="L19">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M19">
         <v>37</v>
       </c>
       <c r="N19">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q19">
         <v>149</v>
@@ -1485,13 +1491,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2422680412371134</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="C20">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="D20">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1503,19 +1509,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K20">
-        <v>0.1796669588080631</v>
+        <v>0.168273444347064</v>
       </c>
       <c r="L20">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="M20">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1527,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>936</v>
+        <v>949</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1535,13 +1541,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.215</v>
+        <v>0.2478632478632479</v>
       </c>
       <c r="C21">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D21">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1553,31 +1559,31 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>157</v>
+        <v>88</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K21">
-        <v>0.0947075208913649</v>
+        <v>0.106145251396648</v>
       </c>
       <c r="L21">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="M21">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="N21">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q21">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1585,13 +1591,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1992753623188406</v>
+        <v>0.2474226804123711</v>
       </c>
       <c r="C22">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="D22">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1603,19 +1609,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>221</v>
+        <v>146</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K22">
-        <v>0.09421702404158544</v>
+        <v>0.1000649772579597</v>
       </c>
       <c r="L22">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="M22">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="N22">
         <v>0.99</v>
@@ -1627,7 +1633,7 @@
         <v>1</v>
       </c>
       <c r="Q22">
-        <v>1394</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1635,13 +1641,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1930379746835443</v>
+        <v>0.1993670886075949</v>
       </c>
       <c r="C23">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D23">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1653,19 +1659,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K23">
-        <v>0.09358288770053476</v>
+        <v>0.09625668449197861</v>
       </c>
       <c r="L23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M23">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1677,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1685,13 +1691,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.1822429906542056</v>
+        <v>0.1992753623188406</v>
       </c>
       <c r="C24">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="D24">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1703,31 +1709,31 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>175</v>
+        <v>221</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K24">
-        <v>0.05319148936170213</v>
+        <v>0.05080213903743316</v>
       </c>
       <c r="L24">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M24">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1735,25 +1741,25 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.1791907514450867</v>
+        <v>0.1827637444279346</v>
       </c>
       <c r="C25">
-        <v>62</v>
+        <v>123</v>
       </c>
       <c r="D25">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="E25">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="F25">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25">
-        <v>284</v>
+        <v>550</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1761,25 +1767,25 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.1772151898734177</v>
+        <v>0.1815561959654179</v>
       </c>
       <c r="C26">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D26">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H26">
-        <v>260</v>
+        <v>284</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1787,13 +1793,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.1602373887240356</v>
+        <v>0.18</v>
       </c>
       <c r="C27">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="D27">
-        <v>108</v>
+        <v>36</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1805,7 +1811,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>566</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1813,13 +1819,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1541850220264317</v>
+        <v>0.1728971962616822</v>
       </c>
       <c r="C28">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="D28">
-        <v>70</v>
+        <v>37</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1831,7 +1837,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>384</v>
+        <v>177</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1839,13 +1845,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.1411290322580645</v>
+        <v>0.1497797356828194</v>
       </c>
       <c r="C29">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="D29">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1857,7 +1863,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>213</v>
+        <v>386</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -1865,13 +1871,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1086142322097378</v>
+        <v>0.1487341772151899</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="D30">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1883,7 +1889,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>238</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -1891,25 +1897,25 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.1026785714285714</v>
+        <v>0.1295546558704453</v>
       </c>
       <c r="C31">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="D31">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="E31">
-        <v>0.02</v>
+        <v>0.03</v>
       </c>
       <c r="F31">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31">
-        <v>402</v>
+        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -1917,25 +1923,25 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.0958904109589041</v>
+        <v>0.1240601503759398</v>
       </c>
       <c r="C32">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D32">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="F32">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="G32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32">
-        <v>330</v>
+        <v>233</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1943,25 +1949,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.066006600660066</v>
+        <v>0.0847457627118644</v>
       </c>
       <c r="C33">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="D33">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="E33">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="F33">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33">
-        <v>566</v>
+        <v>324</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1969,13 +1975,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05343511450381679</v>
+        <v>0.08463251670378619</v>
       </c>
       <c r="C34">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D34">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1987,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>620</v>
+        <v>411</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1995,25 +2001,77 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.04719387755102041</v>
+        <v>0.06765676567656766</v>
       </c>
       <c r="C35">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="D35">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E35">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="F35">
-        <v>0.79</v>
+        <v>0.95</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35">
-        <v>747</v>
+        <v>565</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36">
+        <v>0.05529953917050692</v>
+      </c>
+      <c r="C36">
+        <v>36</v>
+      </c>
+      <c r="D36">
+        <v>40</v>
+      </c>
+      <c r="E36">
+        <v>0.1</v>
+      </c>
+      <c r="F36">
+        <v>0.9</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>0.05477707006369427</v>
+      </c>
+      <c r="C37">
+        <v>43</v>
+      </c>
+      <c r="D37">
+        <v>52</v>
+      </c>
+      <c r="E37">
+        <v>0.17</v>
+      </c>
+      <c r="F37">
+        <v>0.83</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>742</v>
       </c>
     </row>
   </sheetData>
